--- a/知識庫相關資料/蔬菜作物(光補償點&光飽和點).xlsx
+++ b/知識庫相關資料/蔬菜作物(光補償點&光飽和點).xlsx
@@ -12,7 +12,7 @@
     <sheet name="2020.11.26 (2)" sheetId="4" r:id="rId3"/>
     <sheet name="轉換CSV用" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="343">
   <si>
     <t>蔬菜種類</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1257,14 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中日植物-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長日植物-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>短日植物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1298,6 +1290,21 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中日植物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長日植物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5594,7 +5601,7 @@
         <v>152</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P1" s="10" t="s">
         <v>320</v>
@@ -8029,89 +8036,92 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="16" width="15.625" customWidth="1"/>
+    <col min="3" max="17" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33">
+    <row r="1" spans="1:17" ht="33">
       <c r="A1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="H2" s="15" t="s">
         <v>183</v>
       </c>
@@ -8119,37 +8129,40 @@
         <v>183</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N2" s="15" t="s">
         <v>183</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="16">
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
         <v>325</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D3" s="15" t="s">
         <v>183</v>
       </c>
@@ -8166,20 +8179,20 @@
         <v>183</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="M3" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N3" s="15" t="s">
         <v>183</v>
       </c>
@@ -8187,69 +8200,75 @@
         <v>183</v>
       </c>
       <c r="P3" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="H4" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="I4" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="15">
+      <c r="M4" s="15">
         <v>35</v>
       </c>
-      <c r="M4" s="15">
+      <c r="N4" s="15">
         <v>15</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="O4" s="15">
+      <c r="P4" s="15">
         <v>40</v>
       </c>
-      <c r="P4" s="16">
+      <c r="Q4" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D5" s="15" t="s">
         <v>183</v>
       </c>
@@ -8266,20 +8285,20 @@
         <v>183</v>
       </c>
       <c r="I5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="K5" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="L5" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="M5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N5" s="15" t="s">
         <v>183</v>
       </c>
@@ -8287,19 +8306,22 @@
         <v>183</v>
       </c>
       <c r="P5" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>325</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="C6" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D6" s="15" t="s">
         <v>183</v>
       </c>
@@ -8316,46 +8338,49 @@
         <v>183</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="K6" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="L6" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="M6" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="M6" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N6" s="15" t="s">
         <v>183</v>
       </c>
       <c r="O6" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" t="s">
         <v>326</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="F7" s="15" t="s">
         <v>183</v>
       </c>
@@ -8366,58 +8391,61 @@
         <v>183</v>
       </c>
       <c r="I7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="K7" s="15" t="s">
         <v>183</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N7" s="15">
         <v>10</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <v>35</v>
       </c>
-      <c r="P7" s="16">
+      <c r="Q7" s="16">
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
         <v>324</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="D8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J8" s="15" t="s">
         <v>183</v>
       </c>
@@ -8436,38 +8464,41 @@
       <c r="O8" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q8" s="16">
         <v>0.53</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" t="s">
         <v>326</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="F9" s="15" t="s">
         <v>183</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J9" s="15" t="s">
         <v>183</v>
       </c>
@@ -8477,41 +8508,44 @@
       <c r="L9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N9" s="15">
         <v>20</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="O9" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O9" s="15">
+      <c r="P9" s="15">
         <v>40</v>
       </c>
-      <c r="P9" s="16">
+      <c r="Q9" s="16">
         <v>0.43</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E10" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="H10" s="15" t="s">
         <v>183</v>
       </c>
@@ -8537,31 +8571,34 @@
         <v>183</v>
       </c>
       <c r="P10" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>325</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E11" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="H11" s="15" t="s">
         <v>183</v>
       </c>
@@ -8586,32 +8623,35 @@
       <c r="O11" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="H12" s="15" t="s">
         <v>183</v>
       </c>
@@ -8637,19 +8677,22 @@
         <v>183</v>
       </c>
       <c r="P12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>326</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D13" s="15" t="s">
         <v>183</v>
       </c>
@@ -8660,14 +8703,14 @@
         <v>183</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="I13" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J13" s="15" t="s">
         <v>183</v>
       </c>
@@ -8677,29 +8720,32 @@
       <c r="L13" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N13" s="15">
         <v>10</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="O13" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="O13" s="15">
+      <c r="P13" s="15">
         <v>45</v>
       </c>
-      <c r="P13" s="16">
+      <c r="Q13" s="16">
         <v>0.37</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B14" t="s">
         <v>326</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D14" s="15" t="s">
         <v>183</v>
       </c>
@@ -8710,14 +8756,14 @@
         <v>183</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="H14" s="15">
+      <c r="I14" s="15">
         <v>0</v>
       </c>
-      <c r="I14" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J14" s="15" t="s">
         <v>183</v>
       </c>
@@ -8727,41 +8773,44 @@
       <c r="L14" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N14" s="15">
         <v>10</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="O14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="O14" s="15">
+      <c r="P14" s="15">
         <v>40</v>
       </c>
-      <c r="P14" s="16">
+      <c r="Q14" s="16">
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B15" t="s">
         <v>329</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E15" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="H15" s="15" t="s">
         <v>183</v>
       </c>
@@ -8787,19 +8836,22 @@
         <v>183</v>
       </c>
       <c r="P15" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="C16" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D16" s="15" t="s">
         <v>183</v>
       </c>
@@ -8810,14 +8862,14 @@
         <v>183</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="H16" s="15">
+      <c r="I16" s="15">
         <v>5</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J16" s="15" t="s">
         <v>183</v>
       </c>
@@ -8836,100 +8888,106 @@
       <c r="O16" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q16" s="16">
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" t="s">
         <v>324</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="C17" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="F17" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="H17" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="I17" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="J17" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="K17" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="L17" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="M17" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="M17" s="15">
+      <c r="N17" s="15">
         <v>8</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="O17" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="O17" s="15">
+      <c r="P17" s="15">
         <v>35</v>
       </c>
-      <c r="P17" s="16">
+      <c r="Q17" s="16">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="H18" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="I18" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="J18" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="K18" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="M18" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="M18" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N18" s="15" t="s">
         <v>183</v>
       </c>
@@ -8937,49 +8995,52 @@
         <v>183</v>
       </c>
       <c r="P18" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q18" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="E19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="H19" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="J19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="L19" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="M19" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N19" s="15" t="s">
         <v>183</v>
       </c>
@@ -8987,19 +9048,22 @@
         <v>183</v>
       </c>
       <c r="P19" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>325</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="D20" s="15" t="s">
         <v>183</v>
       </c>
@@ -9027,1516 +9091,1609 @@
       <c r="L20" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N20" s="15">
         <v>15</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="O20" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="O20" s="15">
+      <c r="P20" s="15">
         <v>35</v>
       </c>
-      <c r="P20" s="16">
+      <c r="Q20" s="16">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
+        <v>340</v>
+      </c>
+      <c r="B21" t="s">
         <v>325</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="N21" s="15">
+        <v>11</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="P21" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>340</v>
+      </c>
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="F26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
+        <v>340</v>
+      </c>
+      <c r="B27" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="G27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="H27" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N27" s="15">
+        <v>18</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="N28" s="15">
+        <v>11</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="P28" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="I29" s="15">
+        <v>4</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" t="s">
+        <v>324</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>340</v>
+      </c>
+      <c r="B32" t="s">
+        <v>324</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B33" t="s">
+        <v>334</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>340</v>
+      </c>
+      <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="J36" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="N36" s="15">
+        <v>15</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="P36" s="15">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37" t="s">
+        <v>324</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" t="s">
+        <v>325</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="B40" t="s">
+        <v>325</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
+        <v>324</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N41" s="15">
+        <v>5</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="P41" s="15">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" t="s">
+        <v>324</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I42" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N42" s="15">
+        <v>4</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="P42" s="15">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>340</v>
+      </c>
+      <c r="B45" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="15">
+        <v>20</v>
+      </c>
+      <c r="I45" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q45" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I46" s="15">
+        <v>2.4</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="N47" s="15">
+        <v>15</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="P47" s="15">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" t="s">
+        <v>325</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M48" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="M21" s="15">
-        <v>11</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="O21" s="15">
-        <v>30</v>
-      </c>
-      <c r="P21" s="16">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="N48" s="15">
+        <v>10</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B49" t="s">
+        <v>334</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>340</v>
+      </c>
+      <c r="B50" t="s">
         <v>331</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="C50" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I50" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="16">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" t="s">
-        <v>324</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P23" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="J50" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="K50" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P24" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P25" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="15">
-        <v>18</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="O27" s="15">
-        <v>30</v>
-      </c>
-      <c r="P27" s="16">
-        <v>0.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="M28" s="15">
-        <v>11</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="O28" s="15">
-        <v>30</v>
-      </c>
-      <c r="P28" s="16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>333</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="15">
-        <v>4</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P29" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P30" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>324</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>324</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="L50" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="M32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P33" s="16">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>324</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P35" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="L36" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="M36" s="15">
-        <v>15</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="O36" s="15">
-        <v>33</v>
-      </c>
-      <c r="P36" s="16">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>324</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="K37" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L37" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="M37" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P37" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>325</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P38" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N39" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O39" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P39" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>325</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P40" s="16">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>324</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M41" s="15">
-        <v>5</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="O41" s="15">
-        <v>30</v>
-      </c>
-      <c r="P41" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>324</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H42" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="L42" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M42" s="15">
-        <v>4</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="O42" s="15">
-        <v>25</v>
-      </c>
-      <c r="P42" s="16">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" t="s">
-        <v>334</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P43" s="16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O44" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P44" s="16">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" t="s">
-        <v>333</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="15">
-        <v>20</v>
-      </c>
-      <c r="H45" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="I45" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="M45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P45" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="H46" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O46" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P46" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" t="s">
-        <v>325</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="I47" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="M47" s="15">
-        <v>15</v>
-      </c>
-      <c r="N47" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="O47" s="15">
-        <v>35</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" t="s">
-        <v>325</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J48" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K48" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L48" s="15" t="s">
+      <c r="M50" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="M48" s="15">
-        <v>10</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="O48" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P48" s="16">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="A49" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="I49" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="A50" t="s">
-        <v>333</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J50" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K50" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="L50" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="M50" s="15" t="s">
-        <v>183</v>
-      </c>
       <c r="N50" s="15" t="s">
         <v>183</v>
       </c>
       <c r="O50" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="P50" s="16">
+      <c r="P50" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q50" s="16">
         <v>0.53</v>
       </c>
     </row>
